--- a/biology/Zoologie/Cryptoheros_nanoluteus/Cryptoheros_nanoluteus.xlsx
+++ b/biology/Zoologie/Cryptoheros_nanoluteus/Cryptoheros_nanoluteus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptoheros nanoluteus est une espèce de poissons de la famille des cichlidae. Cryptoheros nanoluteus (initialement décrit sous le nom Archocentrus nanoluteus) est un petit poisson aux couleurs vives est une des plus petites espèces de sa tribu.
 </t>
@@ -511,9 +523,11 @@
           <t>Localité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C. nanoluteus est une espèce endémique du Panama en Amérique centrale (Rio canazas, Rio Guaramo, Panamã)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C. nanoluteus est une espèce endémique du Panama en Amérique centrale (Rio canazas, Rio Guaramo, Panamã).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce atteint une Taille maximale de 10 cm et 8 cm pour la femelle[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce atteint une Taille maximale de 10 cm et 8 cm pour la femelle.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce omnivore
 </t>
@@ -604,7 +622,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce défend un territoire et la ponte a lieu sur le substrat
 </t>
@@ -635,7 +655,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cichlidae est territorial.
 </t>
@@ -666,7 +688,9 @@
           <t>Caractéristique physico-chimiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Une Température de 23 °C à 28 °C (73.4 à 82,4 °F) ; un pH compris entre 7,0 (neutre) et 7,4.
 </t>
